--- a/doc/NOTES.xlsx
+++ b/doc/NOTES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhi\Documents\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51AD96B-ABB8-4400-8679-ACD9581F96ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D95FB9-9812-4BF8-B42F-463C2576E76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="940">
   <si>
     <t>HTML</t>
   </si>
@@ -5242,13 +5242,572 @@
   </si>
   <si>
     <t>&lt;p&gt;&lt;strong&gt;Note:&lt;/strong&gt; We use href="#" for test links. In a real website, these would be URLs.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>header and footer</t>
+  </si>
+  <si>
+    <t>Inputs (Text field, radio, dropdown)</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Animation Properties:</t>
+  </si>
+  <si>
+    <t>Animation name</t>
+  </si>
+  <si>
+    <r>
+      <t>Name of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>@keyframes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> to use - Any defined keyframes (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>slideIn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>spin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Animation-duration</t>
+  </si>
+  <si>
+    <r>
+      <t>How long the animation takes per cycle - Time values like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>500ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2.5s</t>
+    </r>
+  </si>
+  <si>
+    <t>Animation-Timing-dfunction</t>
+  </si>
+  <si>
+    <t>Animation-Delay</t>
+  </si>
+  <si>
+    <t>Animation-Iteration-count</t>
+  </si>
+  <si>
+    <t>Animation-duirection</t>
+  </si>
+  <si>
+    <t>Animation-Fill-mode</t>
+  </si>
+  <si>
+    <t>Animation-playstate</t>
+  </si>
+  <si>
+    <t>Animation-Shorthand</t>
+  </si>
+  <si>
+    <t>animation: name duration timing-function delay iteration-count direction fill-mode play-state;</t>
+  </si>
+  <si>
+    <r>
+      <t>Speed curve of the animation - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>linear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ease</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ease-in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ease-out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ease-in-out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>steps(n)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>cubic-bezier(x,y,z,a)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Wait time before animation starts - Time values: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>500ms</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Number of times animation runs - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>infinite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, numbers like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Direction or pattern in which animation runs - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>normal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>reverse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>alternate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>alternate-reverse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> State of the element before/after animation - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>none</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>forwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>backwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>both</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pause or resume an animation - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>running</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>paused</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5503,12 +6062,6 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF404040"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF404040"/>
       <name val="Segoe UI"/>
@@ -5526,6 +6079,18 @@
       <color theme="0"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF404040"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF404040"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -5667,7 +6232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5830,7 +6395,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5848,13 +6413,13 @@
     <xf numFmtId="0" fontId="33" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5863,8 +6428,12 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6617,10 +7186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B8:D616"/>
+  <dimension ref="B8:D633"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A371" zoomScale="36" workbookViewId="0">
-      <selection activeCell="D620" sqref="D620"/>
+    <sheetView tabSelected="1" topLeftCell="B620" workbookViewId="0">
+      <selection activeCell="D634" sqref="D634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9834,44 +10403,146 @@
         <v>912</v>
       </c>
     </row>
-    <row r="609" spans="4:4">
+    <row r="609" spans="2:4">
       <c r="D609" s="91" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="610" spans="4:4">
+    <row r="610" spans="2:4">
       <c r="D610" s="91" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="611" spans="4:4">
+    <row r="611" spans="2:4">
       <c r="D611" s="91" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="612" spans="4:4">
+    <row r="612" spans="2:4">
       <c r="D612" s="91" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="613" spans="4:4">
+    <row r="613" spans="2:4">
       <c r="D613" s="91" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="614" spans="4:4">
+    <row r="614" spans="2:4">
       <c r="D614" s="91" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="615" spans="4:4">
+    <row r="615" spans="2:4">
       <c r="D615" s="91" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="616" spans="4:4">
+    <row r="616" spans="2:4">
       <c r="D616" s="91" t="s">
         <v>882</v>
+      </c>
+    </row>
+    <row r="620" spans="2:4" ht="16">
+      <c r="B620">
+        <v>76</v>
+      </c>
+      <c r="C620" s="92" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="621" spans="2:4" ht="16">
+      <c r="B621">
+        <v>77</v>
+      </c>
+      <c r="C621" s="92" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="622" spans="2:4">
+      <c r="B622">
+        <v>78</v>
+      </c>
+      <c r="C622" t="s">
+        <v>920</v>
+      </c>
+      <c r="D622" s="93" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="624" spans="2:4" ht="16">
+      <c r="C624" t="s">
+        <v>922</v>
+      </c>
+      <c r="D624" s="79" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="625" spans="2:4" ht="16">
+      <c r="C625" t="s">
+        <v>924</v>
+      </c>
+      <c r="D625" s="79" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="626" spans="2:4" ht="16">
+      <c r="C626" t="s">
+        <v>926</v>
+      </c>
+      <c r="D626" s="79" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="627" spans="2:4" ht="16">
+      <c r="C627" t="s">
+        <v>927</v>
+      </c>
+      <c r="D627" s="79" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="628" spans="2:4" ht="16">
+      <c r="C628" t="s">
+        <v>928</v>
+      </c>
+      <c r="D628" s="79" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="629" spans="2:4" ht="16">
+      <c r="C629" t="s">
+        <v>929</v>
+      </c>
+      <c r="D629" s="79" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="630" spans="2:4" ht="16">
+      <c r="C630" t="s">
+        <v>930</v>
+      </c>
+      <c r="D630" s="79" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="631" spans="2:4" ht="16">
+      <c r="C631" t="s">
+        <v>931</v>
+      </c>
+      <c r="D631" s="79" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="633" spans="2:4">
+      <c r="B633">
+        <v>79</v>
+      </c>
+      <c r="C633" t="s">
+        <v>932</v>
+      </c>
+      <c r="D633" t="s">
+        <v>933</v>
       </c>
     </row>
   </sheetData>

--- a/doc/NOTES.xlsx
+++ b/doc/NOTES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhi\Documents\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MY PC\Documents\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D95FB9-9812-4BF8-B42F-463C2576E76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0AA802-22EA-4B66-A022-3228562DC01B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="964">
   <si>
     <t>HTML</t>
   </si>
@@ -5244,9 +5244,6 @@
     <t>&lt;p&gt;&lt;strong&gt;Note:&lt;/strong&gt; We use href="#" for test links. In a real website, these would be URLs.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>header and footer</t>
-  </si>
-  <si>
     <t>Inputs (Text field, radio, dropdown)</t>
   </si>
   <si>
@@ -5801,13 +5798,143 @@
       </rPr>
       <t>paused</t>
     </r>
+  </si>
+  <si>
+    <t>UI Components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  h2 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .linear {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    height: 100px;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    background: linear-gradient(to right, #ff9966, #ff5e62);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .radial {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    background: radial-gradient(circle, #43cea2, #185a9d);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .conic {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    background: conic-gradient(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      from 0deg,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      red,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      orange,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      yellow,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      green,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      blue,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      violet,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    );</t>
+  </si>
+  <si>
+    <t>Gradient colors</t>
+  </si>
+  <si>
+    <t>Box-Sizing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>box-sizing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> property allows us to include the padding and border in an element’s total width and height.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>content-box</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Only content </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(default)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>border-box</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Content + padding + border</t>
+    </r>
+  </si>
+  <si>
+    <t>Header,Footer, Navbar , Sidebar ,Buttons , Cards , Loaders , Popups ,paging , toaster , forms ,Dropdown , Tooltip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6092,6 +6219,19 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -6232,7 +6372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6435,6 +6575,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7186,10 +7327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B8:D633"/>
+  <dimension ref="B8:D669"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B620" workbookViewId="0">
-      <selection activeCell="D634" sqref="D634"/>
+    <sheetView tabSelected="1" topLeftCell="B611" workbookViewId="0">
+      <selection activeCell="D620" sqref="D620"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10447,8 +10588,11 @@
       <c r="B620">
         <v>76</v>
       </c>
-      <c r="C620" s="92" t="s">
-        <v>918</v>
+      <c r="C620" s="79" t="s">
+        <v>939</v>
+      </c>
+      <c r="D620" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="621" spans="2:4" ht="16">
@@ -10456,7 +10600,7 @@
         <v>77</v>
       </c>
       <c r="C621" s="92" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="622" spans="2:4">
@@ -10464,74 +10608,74 @@
         <v>78</v>
       </c>
       <c r="C622" t="s">
+        <v>919</v>
+      </c>
+      <c r="D622" s="93" t="s">
         <v>920</v>
-      </c>
-      <c r="D622" s="93" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="624" spans="2:4" ht="16">
       <c r="C624" t="s">
+        <v>921</v>
+      </c>
+      <c r="D624" s="79" t="s">
         <v>922</v>
-      </c>
-      <c r="D624" s="79" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="625" spans="2:4" ht="16">
       <c r="C625" t="s">
+        <v>923</v>
+      </c>
+      <c r="D625" s="79" t="s">
         <v>924</v>
-      </c>
-      <c r="D625" s="79" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="626" spans="2:4" ht="16">
       <c r="C626" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D626" s="79" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="627" spans="2:4" ht="16">
       <c r="C627" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D627" s="79" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="628" spans="2:4" ht="16">
       <c r="C628" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D628" s="79" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="629" spans="2:4" ht="16">
       <c r="C629" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D629" s="79" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="630" spans="2:4" ht="16">
       <c r="C630" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D630" s="79" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="631" spans="2:4" ht="16">
       <c r="C631" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D631" s="79" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="633" spans="2:4">
@@ -10539,10 +10683,179 @@
         <v>79</v>
       </c>
       <c r="C633" t="s">
+        <v>931</v>
+      </c>
+      <c r="D633" t="s">
         <v>932</v>
       </c>
-      <c r="D633" t="s">
-        <v>933</v>
+    </row>
+    <row r="635" spans="2:4">
+      <c r="B635">
+        <v>80</v>
+      </c>
+      <c r="C635" t="s">
+        <v>958</v>
+      </c>
+      <c r="D635" s="57" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="636" spans="2:4">
+      <c r="D636" s="57" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="637" spans="2:4">
+      <c r="D637" s="57" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="638" spans="2:4">
+      <c r="D638" s="57" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="639" spans="2:4">
+      <c r="D639" s="57"/>
+    </row>
+    <row r="640" spans="2:4">
+      <c r="D640" s="57" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="641" spans="4:4">
+      <c r="D641" s="57" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="642" spans="4:4">
+      <c r="D642" s="57" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="643" spans="4:4">
+      <c r="D643" s="57" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="644" spans="4:4">
+      <c r="D644" s="57"/>
+    </row>
+    <row r="645" spans="4:4">
+      <c r="D645" s="57" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="646" spans="4:4">
+      <c r="D646" s="57" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="647" spans="4:4">
+      <c r="D647" s="57" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="648" spans="4:4">
+      <c r="D648" s="57" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="649" spans="4:4">
+      <c r="D649" s="57"/>
+    </row>
+    <row r="650" spans="4:4">
+      <c r="D650" s="57" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="651" spans="4:4">
+      <c r="D651" s="57" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="652" spans="4:4">
+      <c r="D652" s="57" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="653" spans="4:4">
+      <c r="D653" s="57" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="654" spans="4:4">
+      <c r="D654" s="57" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="655" spans="4:4">
+      <c r="D655" s="57" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="656" spans="4:4">
+      <c r="D656" s="57" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="657" spans="2:4">
+      <c r="D657" s="57" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="658" spans="2:4">
+      <c r="D658" s="57" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="659" spans="2:4">
+      <c r="D659" s="57" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="660" spans="2:4">
+      <c r="D660" s="57" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="661" spans="2:4">
+      <c r="D661" s="57" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="662" spans="2:4">
+      <c r="D662" s="57" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="663" spans="2:4">
+      <c r="D663" s="57" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="665" spans="2:4">
+      <c r="B665">
+        <v>90</v>
+      </c>
+      <c r="C665" t="s">
+        <v>959</v>
+      </c>
+      <c r="D665" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="667" spans="2:4">
+      <c r="D667" s="94" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="668" spans="2:4">
+      <c r="D668" s="57"/>
+    </row>
+    <row r="669" spans="2:4">
+      <c r="D669" s="94" t="s">
+        <v>962</v>
       </c>
     </row>
   </sheetData>
